--- a/20_営業/03_個別開発/MD050/MD050_COK_024_A03_販売実績・販売控除データの作成（補足資料）.xlsx
+++ b/20_営業/03_個別開発/MD050/MD050_COK_024_A03_販売実績・販売控除データの作成（補足資料）.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_18001～18100\E_本稼動_18052【収益認識】販売実績・販売控除データの作成（補足資料）誤記\20_成果物\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="18990" windowHeight="11880" tabRatio="806"/>
   </bookViews>
@@ -12,12 +17,12 @@
     <sheet name="【レビュー時説明用資料】端数処理について (2)" sheetId="31" r:id="rId3"/>
     <sheet name="控除マスタ適用ルール(廃止)" sheetId="26" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="259">
   <si>
     <t>企業A</t>
     <rPh sb="0" eb="2">
@@ -1528,13 +1533,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>100円×70%×2% = 1.4円</t>
-    <rPh sb="17" eb="18">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>税抜基準単価</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1556,13 +1554,6 @@
   </si>
   <si>
     <t>料率(%)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>100円×2% = 2.0円</t>
-    <rPh sb="13" eb="14">
-      <t>エン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1671,26 +1662,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">16.8円×8% = 1.92円 → </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2円</t>
-    </r>
-    <rPh sb="15" eb="16">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1,200円×70%×2% = 16.8円 → </t>
     </r>
     <r>
@@ -1747,15 +1718,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>販売実績の税抜基準単価×控除マスタの料率(%)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>販売実績の本体金額×控除マスタの料率(%)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>販売実績の税抜基準単価×控除マスタの店納(%)×控除マスタの料率(%)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2583,6 +2546,103 @@
     <rPh sb="11" eb="13">
       <t>イッチ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">24.0円×8% = 1.92円 → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2円</t>
+    </r>
+    <rPh sb="15" eb="16">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.8円×12本 = 21.6円 → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>22円</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21.6円×8% = 1.782円 → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2円</t>
+    </r>
+    <rPh sb="16" eb="17">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控除額÷数量</t>
+    <rPh sb="0" eb="3">
+      <t>コウジョガク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>24.0円÷12本 = 2.00円</t>
+    <rPh sb="8" eb="9">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16.8円÷12本 = 1.40円</t>
+    <rPh sb="16" eb="17">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※小数点以下第三位を四捨五入</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3353,23 +3413,35 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3377,19 +3449,28 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3407,59 +3488,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3468,6 +3504,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3488,6 +3527,9 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3503,16 +3545,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3536,6 +3596,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5569,27 +5632,30 @@
     </row>
     <row r="3" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C3" s="68" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D5" s="68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="J5" s="68" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D6" s="68" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="J6" s="68" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
@@ -5597,10 +5663,10 @@
         <v>138</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J7" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -5619,115 +5685,127 @@
     </row>
     <row r="10" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D10" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="72" t="s">
         <v>142</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D11" s="71" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E11" s="72" t="s">
         <v>143</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D12" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I12" s="73"/>
     </row>
     <row r="13" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D13" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I13" s="73"/>
     </row>
     <row r="14" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D15" s="68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>151</v>
+        <v>157</v>
+      </c>
+      <c r="I15" s="68" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D16" s="68" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>159</v>
+        <v>256</v>
       </c>
       <c r="I16" s="68" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D17" s="68" t="s">
         <v>138</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="I17" s="68" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C20" s="68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D22" s="68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+      <c r="L22" s="68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D23" s="68" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+      <c r="L23" s="68" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D24" s="68" t="s">
         <v>138</v>
       </c>
       <c r="E24" s="68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="L24" s="68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C26" s="68" t="s">
         <v>139</v>
       </c>
@@ -5740,70 +5818,73 @@
       </c>
       <c r="H26" s="70"/>
     </row>
-    <row r="27" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D27" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" s="72" t="s">
         <v>142</v>
       </c>
       <c r="G27" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H27" s="72" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D28" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28" s="72" t="s">
         <v>143</v>
       </c>
       <c r="G28" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H28" s="72" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D29" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" s="73"/>
+    </row>
+    <row r="30" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="I29" s="73"/>
-    </row>
-    <row r="30" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="71" t="s">
-        <v>148</v>
-      </c>
       <c r="E30" s="72" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I30" s="73"/>
     </row>
-    <row r="31" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="3:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D32" s="68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E32" s="68" t="s">
-        <v>144</v>
+        <v>158</v>
+      </c>
+      <c r="I32" s="68" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D33" s="68" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="I33" s="68" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
@@ -5811,35 +5892,35 @@
         <v>138</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I34" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" s="65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D39" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E39" s="68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="D40" s="68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E40" s="68" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J40" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
@@ -5847,10 +5928,10 @@
         <v>138</v>
       </c>
       <c r="E41" s="68" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J41" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
@@ -5868,21 +5949,21 @@
     </row>
     <row r="44" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D44" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E44" s="72" t="s">
         <v>142</v>
       </c>
       <c r="G44" s="71" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H44" s="72" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D45" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E45" s="72" t="s">
         <v>143</v>
@@ -5890,40 +5971,40 @@
     </row>
     <row r="46" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D46" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E46" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I46" s="73"/>
     </row>
     <row r="47" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D47" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E47" s="72" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I47" s="73"/>
     </row>
     <row r="48" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="49" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D49" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E49" s="68" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D50" s="68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E50" s="68" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I50" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
@@ -5931,34 +6012,34 @@
         <v>138</v>
       </c>
       <c r="E51" s="68" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I51" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="65" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D56" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E56" s="68" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D57" s="68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E57" s="68" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L57" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.15">
@@ -5966,15 +6047,15 @@
         <v>138</v>
       </c>
       <c r="E58" s="68" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L58" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C60" s="68" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D60" s="69" t="s">
         <v>140</v>
@@ -5987,13 +6068,13 @@
     </row>
     <row r="61" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D61" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E61" s="72" t="s">
         <v>142</v>
       </c>
       <c r="G61" s="71" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H61" s="77" t="s">
         <v>106</v>
@@ -6001,76 +6082,76 @@
     </row>
     <row r="62" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D62" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E62" s="77" t="s">
         <v>143</v>
       </c>
       <c r="G62" s="71" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H62" s="72" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D63" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E63" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G63" s="71" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H63" s="72" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I63" s="73"/>
     </row>
     <row r="64" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D64" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E64" s="72" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G64" s="71" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H64" s="76" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D65" s="74"/>
       <c r="E65" s="75"/>
       <c r="G65" s="71" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H65" s="72" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I65" s="73"/>
     </row>
     <row r="66" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="67" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D67" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E67" s="68" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D68" s="68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E68" s="68" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I68" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
@@ -6078,15 +6159,15 @@
         <v>138</v>
       </c>
       <c r="E69" s="68" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I69" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C72" s="68" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D72" s="69" t="s">
         <v>140</v>
@@ -6099,13 +6180,13 @@
     </row>
     <row r="73" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D73" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E73" s="72" t="s">
         <v>142</v>
       </c>
       <c r="G73" s="71" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H73" s="77" t="s">
         <v>110</v>
@@ -6113,76 +6194,76 @@
     </row>
     <row r="74" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D74" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E74" s="77" t="s">
         <v>143</v>
       </c>
       <c r="G74" s="71" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H74" s="72" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D75" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E75" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G75" s="71" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H75" s="72" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I75" s="73"/>
     </row>
     <row r="76" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D76" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E76" s="72" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G76" s="71" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H76" s="76" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D77" s="74"/>
       <c r="E77" s="75"/>
       <c r="G77" s="71" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H77" s="72" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I77" s="73"/>
     </row>
     <row r="78" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="79" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D79" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E79" s="68" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D80" s="68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E80" s="68" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I80" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -6192,34 +6273,34 @@
         <v>138</v>
       </c>
       <c r="E83" s="68" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I83" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B86" s="65" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D88" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E88" s="68" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D89" s="68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E89" s="68" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L89" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.15">
@@ -6227,15 +6308,15 @@
         <v>138</v>
       </c>
       <c r="E90" s="68" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L90" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C92" s="68" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D92" s="69" t="s">
         <v>140</v>
@@ -6248,13 +6329,13 @@
     </row>
     <row r="93" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D93" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E93" s="72" t="s">
         <v>142</v>
       </c>
       <c r="G93" s="71" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H93" s="77" t="s">
         <v>106</v>
@@ -6262,45 +6343,45 @@
     </row>
     <row r="94" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D94" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E94" s="77" t="s">
         <v>143</v>
       </c>
       <c r="G94" s="71" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H94" s="72" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D95" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E95" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G95" s="71" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H95" s="76" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I95" s="73"/>
     </row>
     <row r="96" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D96" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E96" s="72" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G96" s="71" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H96" s="72" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
@@ -6310,21 +6391,21 @@
     </row>
     <row r="98" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D98" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E98" s="68" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D99" s="68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E99" s="68" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="I99" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
@@ -6332,15 +6413,15 @@
         <v>138</v>
       </c>
       <c r="E100" s="68" t="s">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="I100" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C103" s="68" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D103" s="69" t="s">
         <v>140</v>
@@ -6353,13 +6434,13 @@
     </row>
     <row r="104" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D104" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E104" s="72" t="s">
         <v>142</v>
       </c>
       <c r="G104" s="71" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H104" s="77" t="s">
         <v>110</v>
@@ -6367,45 +6448,45 @@
     </row>
     <row r="105" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D105" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E105" s="77" t="s">
         <v>143</v>
       </c>
       <c r="G105" s="71" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H105" s="72" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D106" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E106" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G106" s="71" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H106" s="76" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I106" s="73"/>
     </row>
     <row r="107" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D107" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E107" s="72" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G107" s="71" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H107" s="72" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
@@ -6415,21 +6496,21 @@
     </row>
     <row r="109" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D109" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E109" s="68" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D110" s="68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E110" s="68" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I110" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="3:9" s="68" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -6439,37 +6520,37 @@
         <v>138</v>
       </c>
       <c r="E113" s="68" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I113" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B116" s="65" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D118" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E118" s="68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D119" s="68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E119" s="68" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J119" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L119" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.15">
@@ -6477,13 +6558,13 @@
         <v>138</v>
       </c>
       <c r="E120" s="68" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J120" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L120" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
@@ -6501,59 +6582,59 @@
     </row>
     <row r="123" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D123" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E123" s="72" t="s">
         <v>142</v>
       </c>
       <c r="G123" s="78" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H123" s="72" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D124" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E124" s="72" t="s">
         <v>143</v>
       </c>
       <c r="G124" s="78" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H124" s="72" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D125" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E125" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G125" s="78" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H125" s="72" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I125" s="73"/>
     </row>
     <row r="126" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D126" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E126" s="72" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G126" s="78" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H126" s="76" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
@@ -6561,21 +6642,21 @@
     </row>
     <row r="128" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D128" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E128" s="68" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="129" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D129" s="68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E129" s="68" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I129" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
@@ -6583,37 +6664,37 @@
         <v>138</v>
       </c>
       <c r="E130" s="68" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I130" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B133" s="65" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D135" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E135" s="68" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D136" s="68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E136" s="68" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J136" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L136" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.15">
@@ -6621,13 +6702,13 @@
         <v>138</v>
       </c>
       <c r="E137" s="68" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J137" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L137" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
@@ -6645,53 +6726,53 @@
     </row>
     <row r="140" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D140" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E140" s="72" t="s">
         <v>142</v>
       </c>
       <c r="G140" s="78" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H140" s="72" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D141" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E141" s="72" t="s">
         <v>143</v>
       </c>
       <c r="G141" s="78" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H141" s="72" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D142" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E142" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G142" s="78" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H142" s="76" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I142" s="73"/>
     </row>
     <row r="143" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D143" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E143" s="72" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" spans="2:12" s="68" customFormat="1" x14ac:dyDescent="0.15">
@@ -6699,21 +6780,21 @@
     </row>
     <row r="145" spans="4:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D145" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E145" s="68" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="146" spans="4:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D146" s="68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E146" s="68" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I146" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="4:9" s="68" customFormat="1" x14ac:dyDescent="0.15">
@@ -6721,17 +6802,17 @@
         <v>138</v>
       </c>
       <c r="E147" s="68" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I147" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D107 E1:H107 E108:H143" numberStoredAsText="1"/>
+    <ignoredError sqref="A23:D23 F33:H33 A33:D107 E34:H98 A16:D17 F16:H17 E101:H143 F99:H100 A1:H4 A7:H14 A18:H21 A24:H31 A6:D6 F6:H6 F23:H23" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7098,7 +7179,7 @@
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B2" s="22" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
@@ -7125,7 +7206,7 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D5" s="22" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="26"/>
       <c r="R5" s="26"/>
@@ -7182,7 +7263,7 @@
         <v>86</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H7" s="34">
         <v>200.2</v>
@@ -7227,7 +7308,7 @@
         <v>87</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H8" s="28">
         <v>500.5</v>
@@ -7271,7 +7352,7 @@
         <v>88</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H9" s="41">
         <v>600.6</v>
@@ -7315,7 +7396,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H11" s="28">
         <f>SUM(H7:H9)</f>
@@ -7351,7 +7432,7 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="22" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
@@ -7411,7 +7492,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H16" s="51">
         <v>1301</v>
@@ -7440,14 +7521,14 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B18" s="22" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D19" s="22" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="26"/>
       <c r="R19" s="26"/>
@@ -7504,7 +7585,7 @@
         <v>86</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H21" s="34">
         <v>100.5</v>
@@ -7549,7 +7630,7 @@
         <v>87</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H22" s="28">
         <v>200.5</v>
@@ -7593,7 +7674,7 @@
         <v>88</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H23" s="41">
         <v>300.39999999999998</v>
@@ -7637,7 +7718,7 @@
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H25" s="28">
         <f>SUM(H21:H23)</f>
@@ -7673,7 +7754,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B27" s="22" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q27" s="26"/>
       <c r="R27" s="26"/>
@@ -7733,7 +7814,7 @@
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H30" s="51">
         <v>601</v>
@@ -7770,7 +7851,7 @@
     </row>
     <row r="34" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="22" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>96</v>
@@ -7917,7 +7998,7 @@
         <v>86</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H43" s="34">
         <f>H39*K43</f>
@@ -7980,7 +8061,7 @@
         <v>87</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H44" s="28">
         <f>H39*K44</f>
@@ -8037,13 +8118,13 @@
         <v>94</v>
       </c>
       <c r="E45" s="81" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F45" s="82" t="s">
         <v>88</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H45" s="84">
         <f>H39*K45</f>
@@ -8065,10 +8146,10 @@
         <v>3</v>
       </c>
       <c r="M45" s="80" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N45" s="81" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O45" s="82" t="s">
         <v>88</v>
@@ -8169,7 +8250,7 @@
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B51" s="22" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q51" s="26"/>
       <c r="R51" s="26"/>
@@ -8226,7 +8307,7 @@
         <v>86</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H53" s="34">
         <f t="shared" ref="H53:I55" si="0">(H7+H21)*-1</f>
@@ -8249,7 +8330,7 @@
         <v>86</v>
       </c>
       <c r="P53" s="33" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q53" s="34">
         <f t="shared" ref="Q53:R55" si="1">(Q7+Q21)*-1</f>
@@ -8274,7 +8355,7 @@
         <v>87</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H54" s="28">
         <f t="shared" si="0"/>
@@ -8297,7 +8378,7 @@
         <v>87</v>
       </c>
       <c r="P54" s="25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q54" s="28">
         <f t="shared" si="1"/>
@@ -8322,7 +8403,7 @@
         <v>88</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H55" s="41">
         <f t="shared" si="0"/>
@@ -8345,7 +8426,7 @@
         <v>88</v>
       </c>
       <c r="P55" s="40" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q55" s="41">
         <f t="shared" si="1"/>
@@ -8469,7 +8550,7 @@
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="25" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H61" s="51">
         <v>-1903</v>
@@ -8494,7 +8575,7 @@
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.15">
       <c r="G63" s="43" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P63" s="43" t="s">
         <v>97</v>
@@ -8502,7 +8583,7 @@
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.15">
       <c r="G64" s="43" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -8567,7 +8648,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="2:21" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8583,7 +8664,7 @@
         <v>68</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:21" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8599,7 +8680,7 @@
         <v>70</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="2:21" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8632,10 +8713,10 @@
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="2:32" s="19" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="O18" s="137" t="s">
+      <c r="O18" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="P18" s="138"/>
+      <c r="P18" s="92"/>
       <c r="S18" s="19" t="s">
         <v>44</v>
       </c>
@@ -8680,22 +8761,22 @@
       <c r="Z20" s="15"/>
     </row>
     <row r="21" spans="2:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="109" t="s">
+      <c r="D21" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="110"/>
-      <c r="K21" s="93" t="s">
+      <c r="E21" s="96"/>
+      <c r="K21" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="L21" s="94"/>
-      <c r="R21" s="109" t="s">
+      <c r="L21" s="98"/>
+      <c r="R21" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="110"/>
-      <c r="Y21" s="93" t="s">
+      <c r="S21" s="96"/>
+      <c r="Y21" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="Z21" s="94"/>
+      <c r="Z21" s="98"/>
     </row>
     <row r="22" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="2"/>
@@ -8743,81 +8824,81 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="2:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="120" t="s">
+      <c r="C24" s="100"/>
+      <c r="D24" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="118"/>
-      <c r="F24" s="117" t="s">
+      <c r="E24" s="102"/>
+      <c r="F24" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="118"/>
-      <c r="I24" s="139" t="s">
+      <c r="G24" s="102"/>
+      <c r="I24" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="140"/>
-      <c r="K24" s="120" t="s">
+      <c r="J24" s="100"/>
+      <c r="K24" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="118"/>
-      <c r="M24" s="117" t="s">
+      <c r="L24" s="102"/>
+      <c r="M24" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="N24" s="118"/>
-      <c r="P24" s="113" t="s">
+      <c r="N24" s="102"/>
+      <c r="P24" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="113" t="s">
+      <c r="Q24" s="88"/>
+      <c r="R24" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="S24" s="114"/>
-      <c r="T24" s="113" t="s">
+      <c r="S24" s="88"/>
+      <c r="T24" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="U24" s="114"/>
-      <c r="W24" s="113" t="s">
+      <c r="U24" s="88"/>
+      <c r="W24" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="X24" s="114"/>
-      <c r="Y24" s="113" t="s">
+      <c r="X24" s="88"/>
+      <c r="Y24" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="Z24" s="114"/>
-      <c r="AA24" s="113" t="s">
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AB24" s="114"/>
+      <c r="AB24" s="88"/>
       <c r="AC24" s="18"/>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="P25" s="115" t="s">
+      <c r="P25" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="115" t="s">
+      <c r="Q25" s="90"/>
+      <c r="R25" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="S25" s="88"/>
-      <c r="T25" s="115" t="s">
+      <c r="S25" s="90"/>
+      <c r="T25" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="U25" s="88"/>
-      <c r="W25" s="115" t="s">
+      <c r="U25" s="90"/>
+      <c r="W25" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="115" t="s">
+      <c r="X25" s="90"/>
+      <c r="Y25" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="115" t="s">
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="AB25" s="88"/>
+      <c r="AB25" s="90"/>
       <c r="AC25" s="11"/>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.15">
@@ -8827,277 +8908,277 @@
     </row>
     <row r="30" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89" t="s">
+      <c r="C31" s="93"/>
+      <c r="D31" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="89"/>
-      <c r="F31" s="87" t="s">
+      <c r="E31" s="93"/>
+      <c r="F31" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="89"/>
-      <c r="H31" s="87" t="s">
+      <c r="G31" s="93"/>
+      <c r="H31" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="89"/>
-      <c r="J31" s="87" t="s">
+      <c r="I31" s="93"/>
+      <c r="J31" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="K31" s="89"/>
-      <c r="L31" s="87" t="s">
+      <c r="K31" s="93"/>
+      <c r="L31" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="89"/>
-      <c r="N31" s="87" t="s">
+      <c r="M31" s="93"/>
+      <c r="N31" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="87" t="s">
+      <c r="O31" s="90"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="R31" s="89"/>
-      <c r="T31" s="90" t="s">
+      <c r="R31" s="93"/>
+      <c r="T31" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="U31" s="91"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="91"/>
-      <c r="AC31" s="91"/>
-      <c r="AD31" s="91"/>
-      <c r="AE31" s="91"/>
-      <c r="AF31" s="92"/>
+      <c r="U31" s="113"/>
+      <c r="V31" s="113"/>
+      <c r="W31" s="113"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="113"/>
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="113"/>
+      <c r="AB31" s="113"/>
+      <c r="AC31" s="113"/>
+      <c r="AD31" s="113"/>
+      <c r="AE31" s="113"/>
+      <c r="AF31" s="114"/>
     </row>
     <row r="32" spans="2:32" s="8" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="119" t="s">
+      <c r="C32" s="90"/>
+      <c r="D32" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="119"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="100" t="s">
+      <c r="E32" s="132"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="101"/>
-      <c r="N32" s="100" t="s">
+      <c r="M32" s="108"/>
+      <c r="N32" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="100" t="s">
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="R32" s="101"/>
-      <c r="T32" s="102" t="s">
+      <c r="R32" s="108"/>
+      <c r="T32" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="103"/>
-      <c r="X32" s="103"/>
-      <c r="Y32" s="103"/>
-      <c r="Z32" s="103"/>
-      <c r="AA32" s="103"/>
-      <c r="AB32" s="103"/>
-      <c r="AC32" s="103"/>
-      <c r="AD32" s="103"/>
-      <c r="AE32" s="103"/>
-      <c r="AF32" s="104"/>
+      <c r="U32" s="110"/>
+      <c r="V32" s="110"/>
+      <c r="W32" s="110"/>
+      <c r="X32" s="110"/>
+      <c r="Y32" s="110"/>
+      <c r="Z32" s="110"/>
+      <c r="AA32" s="110"/>
+      <c r="AB32" s="110"/>
+      <c r="AC32" s="110"/>
+      <c r="AD32" s="110"/>
+      <c r="AE32" s="110"/>
+      <c r="AF32" s="111"/>
     </row>
     <row r="33" spans="2:32" s="8" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="88"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="90"/>
       <c r="F33" s="105" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="106"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="100" t="s">
+      <c r="H33" s="104"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="101"/>
-      <c r="N33" s="100" t="s">
+      <c r="M33" s="108"/>
+      <c r="N33" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="100" t="s">
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="R33" s="101"/>
-      <c r="T33" s="102" t="s">
+      <c r="R33" s="108"/>
+      <c r="T33" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="103"/>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="103"/>
-      <c r="AF33" s="104"/>
+      <c r="U33" s="110"/>
+      <c r="V33" s="110"/>
+      <c r="W33" s="110"/>
+      <c r="X33" s="110"/>
+      <c r="Y33" s="110"/>
+      <c r="Z33" s="110"/>
+      <c r="AA33" s="110"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="110"/>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="110"/>
+      <c r="AF33" s="111"/>
     </row>
     <row r="34" spans="2:32" s="17" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="97" t="s">
+      <c r="C34" s="90"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="98"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="100" t="s">
+      <c r="I34" s="140"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="M34" s="101"/>
-      <c r="N34" s="100" t="s">
+      <c r="M34" s="108"/>
+      <c r="N34" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="100" t="s">
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="R34" s="101"/>
+      <c r="R34" s="108"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="102" t="s">
+      <c r="T34" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="103"/>
-      <c r="Z34" s="103"/>
-      <c r="AA34" s="103"/>
-      <c r="AB34" s="103"/>
-      <c r="AC34" s="103"/>
-      <c r="AD34" s="103"/>
-      <c r="AE34" s="103"/>
-      <c r="AF34" s="104"/>
+      <c r="U34" s="110"/>
+      <c r="V34" s="110"/>
+      <c r="W34" s="110"/>
+      <c r="X34" s="110"/>
+      <c r="Y34" s="110"/>
+      <c r="Z34" s="110"/>
+      <c r="AA34" s="110"/>
+      <c r="AB34" s="110"/>
+      <c r="AC34" s="110"/>
+      <c r="AD34" s="110"/>
+      <c r="AE34" s="110"/>
+      <c r="AF34" s="111"/>
     </row>
     <row r="35" spans="2:32" s="17" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="97" t="s">
+      <c r="C35" s="90"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="98"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="100" t="s">
+      <c r="I35" s="140"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="M35" s="101"/>
-      <c r="N35" s="100" t="s">
+      <c r="M35" s="108"/>
+      <c r="N35" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="O35" s="101"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="100" t="s">
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="R35" s="101"/>
+      <c r="R35" s="108"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="102" t="s">
+      <c r="T35" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="103"/>
-      <c r="Z35" s="103"/>
-      <c r="AA35" s="103"/>
-      <c r="AB35" s="103"/>
-      <c r="AC35" s="103"/>
-      <c r="AD35" s="103"/>
-      <c r="AE35" s="103"/>
-      <c r="AF35" s="104"/>
+      <c r="U35" s="110"/>
+      <c r="V35" s="110"/>
+      <c r="W35" s="110"/>
+      <c r="X35" s="110"/>
+      <c r="Y35" s="110"/>
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="110"/>
+      <c r="AB35" s="110"/>
+      <c r="AC35" s="110"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="110"/>
+      <c r="AF35" s="111"/>
     </row>
     <row r="36" spans="2:32" s="17" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="88"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="90"/>
       <c r="F36" s="105" t="s">
         <v>3</v>
       </c>
       <c r="G36" s="106"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="100" t="s">
+      <c r="H36" s="104"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="101"/>
-      <c r="N36" s="100" t="s">
+      <c r="M36" s="108"/>
+      <c r="N36" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="101"/>
-      <c r="P36" s="101"/>
-      <c r="Q36" s="100" t="s">
+      <c r="O36" s="108"/>
+      <c r="P36" s="108"/>
+      <c r="Q36" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="R36" s="101"/>
+      <c r="R36" s="108"/>
       <c r="S36" s="8"/>
-      <c r="T36" s="102" t="s">
+      <c r="T36" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="U36" s="103"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="103"/>
-      <c r="X36" s="103"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="103"/>
-      <c r="AA36" s="103"/>
-      <c r="AB36" s="103"/>
-      <c r="AC36" s="103"/>
-      <c r="AD36" s="103"/>
-      <c r="AE36" s="103"/>
-      <c r="AF36" s="104"/>
+      <c r="U36" s="110"/>
+      <c r="V36" s="110"/>
+      <c r="W36" s="110"/>
+      <c r="X36" s="110"/>
+      <c r="Y36" s="110"/>
+      <c r="Z36" s="110"/>
+      <c r="AA36" s="110"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="110"/>
+      <c r="AD36" s="110"/>
+      <c r="AE36" s="110"/>
+      <c r="AF36" s="111"/>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B40" s="9" t="s">
@@ -9121,10 +9202,10 @@
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="O44" s="121" t="s">
+      <c r="O44" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="P44" s="122"/>
+      <c r="P44" s="134"/>
       <c r="S44" s="1" t="s">
         <v>44</v>
       </c>
@@ -9169,22 +9250,22 @@
       <c r="Z46" s="15"/>
     </row>
     <row r="47" spans="2:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="93" t="s">
+      <c r="D47" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="94"/>
-      <c r="K47" s="93" t="s">
+      <c r="E47" s="98"/>
+      <c r="K47" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="L47" s="94"/>
-      <c r="R47" s="95" t="s">
+      <c r="L47" s="98"/>
+      <c r="R47" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="96"/>
-      <c r="Y47" s="109" t="s">
+      <c r="S47" s="138"/>
+      <c r="Y47" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="Z47" s="110"/>
+      <c r="Z47" s="96"/>
     </row>
     <row r="48" spans="2:32" x14ac:dyDescent="0.15">
       <c r="C48" s="2"/>
@@ -9232,81 +9313,81 @@
       <c r="AC49" s="8"/>
     </row>
     <row r="50" spans="2:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="117" t="s">
+      <c r="B50" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="118"/>
-      <c r="D50" s="120" t="s">
+      <c r="C50" s="102"/>
+      <c r="D50" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="118"/>
-      <c r="F50" s="117" t="s">
+      <c r="E50" s="102"/>
+      <c r="F50" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="118"/>
-      <c r="I50" s="117" t="s">
+      <c r="G50" s="102"/>
+      <c r="I50" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="J50" s="118"/>
-      <c r="K50" s="120" t="s">
+      <c r="J50" s="102"/>
+      <c r="K50" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="L50" s="118"/>
-      <c r="M50" s="117" t="s">
+      <c r="L50" s="102"/>
+      <c r="M50" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="N50" s="118"/>
-      <c r="P50" s="111" t="s">
+      <c r="N50" s="102"/>
+      <c r="P50" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="Q50" s="112"/>
-      <c r="R50" s="123" t="s">
+      <c r="Q50" s="136"/>
+      <c r="R50" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="S50" s="124"/>
-      <c r="T50" s="125" t="s">
+      <c r="S50" s="116"/>
+      <c r="T50" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="U50" s="114"/>
-      <c r="W50" s="113" t="s">
+      <c r="U50" s="88"/>
+      <c r="W50" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="X50" s="114"/>
-      <c r="Y50" s="111" t="s">
+      <c r="X50" s="88"/>
+      <c r="Y50" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="Z50" s="126"/>
-      <c r="AA50" s="113" t="s">
+      <c r="Z50" s="119"/>
+      <c r="AA50" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AB50" s="114"/>
+      <c r="AB50" s="88"/>
       <c r="AC50" s="18"/>
     </row>
     <row r="51" spans="2:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="P51" s="127" t="s">
+      <c r="P51" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="Q51" s="128"/>
-      <c r="R51" s="129" t="s">
+      <c r="Q51" s="121"/>
+      <c r="R51" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="S51" s="130"/>
-      <c r="T51" s="131" t="s">
+      <c r="S51" s="123"/>
+      <c r="T51" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="U51" s="108"/>
-      <c r="W51" s="115" t="s">
+      <c r="U51" s="125"/>
+      <c r="W51" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="X51" s="132"/>
-      <c r="Y51" s="133" t="s">
+      <c r="X51" s="126"/>
+      <c r="Y51" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="Z51" s="134"/>
-      <c r="AA51" s="135" t="s">
+      <c r="Z51" s="128"/>
+      <c r="AA51" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="AB51" s="136"/>
+      <c r="AB51" s="130"/>
       <c r="AC51" s="11"/>
     </row>
     <row r="56" spans="2:32" x14ac:dyDescent="0.15">
@@ -9316,218 +9397,288 @@
     </row>
     <row r="57" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="58" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="89" t="s">
+      <c r="B58" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="89"/>
-      <c r="D58" s="89" t="s">
+      <c r="C58" s="93"/>
+      <c r="D58" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="89"/>
-      <c r="F58" s="87" t="s">
+      <c r="E58" s="93"/>
+      <c r="F58" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="89"/>
-      <c r="H58" s="87" t="s">
+      <c r="G58" s="93"/>
+      <c r="H58" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="89"/>
-      <c r="J58" s="87" t="s">
+      <c r="I58" s="93"/>
+      <c r="J58" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="89"/>
-      <c r="L58" s="87" t="s">
+      <c r="K58" s="93"/>
+      <c r="L58" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="M58" s="89"/>
-      <c r="N58" s="87" t="s">
+      <c r="M58" s="93"/>
+      <c r="N58" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
-      <c r="Q58" s="87" t="s">
+      <c r="O58" s="90"/>
+      <c r="P58" s="90"/>
+      <c r="Q58" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="R58" s="89"/>
-      <c r="T58" s="90" t="s">
+      <c r="R58" s="93"/>
+      <c r="T58" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="U58" s="91"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
-      <c r="X58" s="91"/>
-      <c r="Y58" s="91"/>
-      <c r="Z58" s="91"/>
-      <c r="AA58" s="91"/>
-      <c r="AB58" s="91"/>
-      <c r="AC58" s="91"/>
-      <c r="AD58" s="91"/>
-      <c r="AE58" s="91"/>
-      <c r="AF58" s="92"/>
+      <c r="U58" s="113"/>
+      <c r="V58" s="113"/>
+      <c r="W58" s="113"/>
+      <c r="X58" s="113"/>
+      <c r="Y58" s="113"/>
+      <c r="Z58" s="113"/>
+      <c r="AA58" s="113"/>
+      <c r="AB58" s="113"/>
+      <c r="AC58" s="113"/>
+      <c r="AD58" s="113"/>
+      <c r="AE58" s="113"/>
+      <c r="AF58" s="114"/>
     </row>
     <row r="59" spans="2:32" s="17" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="88" t="s">
+      <c r="B59" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="88"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="88"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="90"/>
       <c r="F59" s="105" t="s">
         <v>3</v>
       </c>
       <c r="G59" s="106"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="115" t="s">
+      <c r="H59" s="104"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="K59" s="116"/>
-      <c r="L59" s="100" t="s">
+      <c r="K59" s="131"/>
+      <c r="L59" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="M59" s="101"/>
-      <c r="N59" s="100" t="s">
+      <c r="M59" s="108"/>
+      <c r="N59" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="O59" s="101"/>
-      <c r="P59" s="101"/>
-      <c r="Q59" s="100" t="s">
+      <c r="O59" s="108"/>
+      <c r="P59" s="108"/>
+      <c r="Q59" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="R59" s="101"/>
+      <c r="R59" s="108"/>
       <c r="S59" s="1"/>
-      <c r="T59" s="102" t="s">
+      <c r="T59" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="U59" s="103"/>
-      <c r="V59" s="103"/>
-      <c r="W59" s="103"/>
-      <c r="X59" s="103"/>
-      <c r="Y59" s="103"/>
-      <c r="Z59" s="103"/>
-      <c r="AA59" s="103"/>
-      <c r="AB59" s="103"/>
-      <c r="AC59" s="103"/>
-      <c r="AD59" s="103"/>
-      <c r="AE59" s="103"/>
-      <c r="AF59" s="104"/>
+      <c r="U59" s="110"/>
+      <c r="V59" s="110"/>
+      <c r="W59" s="110"/>
+      <c r="X59" s="110"/>
+      <c r="Y59" s="110"/>
+      <c r="Z59" s="110"/>
+      <c r="AA59" s="110"/>
+      <c r="AB59" s="110"/>
+      <c r="AC59" s="110"/>
+      <c r="AD59" s="110"/>
+      <c r="AE59" s="110"/>
+      <c r="AF59" s="111"/>
     </row>
     <row r="60" spans="2:32" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="88"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="99"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="113" t="s">
+      <c r="C60" s="90"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I60" s="114"/>
-      <c r="J60" s="115" t="s">
+      <c r="I60" s="88"/>
+      <c r="J60" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="K60" s="116"/>
-      <c r="L60" s="100" t="s">
+      <c r="K60" s="131"/>
+      <c r="L60" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="M60" s="101"/>
-      <c r="N60" s="100" t="s">
+      <c r="M60" s="108"/>
+      <c r="N60" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="O60" s="101"/>
-      <c r="P60" s="101"/>
-      <c r="Q60" s="100" t="s">
+      <c r="O60" s="108"/>
+      <c r="P60" s="108"/>
+      <c r="Q60" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="R60" s="101"/>
-      <c r="T60" s="102" t="s">
+      <c r="R60" s="108"/>
+      <c r="T60" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="U60" s="103"/>
-      <c r="V60" s="103"/>
-      <c r="W60" s="103"/>
-      <c r="X60" s="103"/>
-      <c r="Y60" s="103"/>
-      <c r="Z60" s="103"/>
-      <c r="AA60" s="103"/>
-      <c r="AB60" s="103"/>
-      <c r="AC60" s="103"/>
-      <c r="AD60" s="103"/>
-      <c r="AE60" s="103"/>
-      <c r="AF60" s="104"/>
+      <c r="U60" s="110"/>
+      <c r="V60" s="110"/>
+      <c r="W60" s="110"/>
+      <c r="X60" s="110"/>
+      <c r="Y60" s="110"/>
+      <c r="Z60" s="110"/>
+      <c r="AA60" s="110"/>
+      <c r="AB60" s="110"/>
+      <c r="AC60" s="110"/>
+      <c r="AD60" s="110"/>
+      <c r="AE60" s="110"/>
+      <c r="AF60" s="111"/>
     </row>
     <row r="61" spans="2:32" s="17" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="88" t="s">
+      <c r="B61" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="88"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="88"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="90"/>
       <c r="F61" s="105" t="s">
         <v>36</v>
       </c>
       <c r="G61" s="106"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="107" t="s">
+      <c r="H61" s="104"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="K61" s="108"/>
-      <c r="L61" s="100" t="s">
+      <c r="K61" s="125"/>
+      <c r="L61" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="M61" s="101"/>
-      <c r="N61" s="100" t="s">
+      <c r="M61" s="108"/>
+      <c r="N61" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="O61" s="101"/>
-      <c r="P61" s="101"/>
-      <c r="Q61" s="100" t="s">
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="R61" s="101"/>
+      <c r="R61" s="108"/>
       <c r="S61" s="1"/>
-      <c r="T61" s="102" t="s">
+      <c r="T61" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="U61" s="103"/>
-      <c r="V61" s="103"/>
-      <c r="W61" s="103"/>
-      <c r="X61" s="103"/>
-      <c r="Y61" s="103"/>
-      <c r="Z61" s="103"/>
-      <c r="AA61" s="103"/>
-      <c r="AB61" s="103"/>
-      <c r="AC61" s="103"/>
-      <c r="AD61" s="103"/>
-      <c r="AE61" s="103"/>
-      <c r="AF61" s="104"/>
+      <c r="U61" s="110"/>
+      <c r="V61" s="110"/>
+      <c r="W61" s="110"/>
+      <c r="X61" s="110"/>
+      <c r="Y61" s="110"/>
+      <c r="Z61" s="110"/>
+      <c r="AA61" s="110"/>
+      <c r="AB61" s="110"/>
+      <c r="AC61" s="110"/>
+      <c r="AD61" s="110"/>
+      <c r="AE61" s="110"/>
+      <c r="AF61" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="T58:AF58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="T61:AF61"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="T36:AF36"/>
+    <mergeCell ref="T59:AF59"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="T35:AF35"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="T60:AF60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="T31:AF31"/>
+    <mergeCell ref="T32:AF32"/>
+    <mergeCell ref="T33:AF33"/>
+    <mergeCell ref="T34:AF34"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="AA50:AB50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="AA51:AB51"/>
     <mergeCell ref="Y21:Z21"/>
     <mergeCell ref="W24:X24"/>
     <mergeCell ref="Y24:Z24"/>
@@ -9552,97 +9703,27 @@
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="T60:AF60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="T31:AF31"/>
-    <mergeCell ref="T32:AF32"/>
-    <mergeCell ref="T33:AF33"/>
-    <mergeCell ref="T34:AF34"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="AA50:AB50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="AA51:AB51"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="T35:AF35"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="T61:AF61"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="T36:AF36"/>
-    <mergeCell ref="T59:AF59"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="T58:AF58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="T25:U25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
